--- a/example notebooks/Example publication - integrated modelling/model_config.xlsx
+++ b/example notebooks/Example publication - integrated modelling/model_config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/b8061896_newcastle_ac_uk/Documents/Python/Projects/Batt_Sust_Model-1/example notebooks/case study publication BatPaC V5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/b8061896_newcastle_ac_uk/Documents/Python/Projects/Bat_Sust_Model/Batt_Sust_Model/example notebooks/Example publication - integrated modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{D69BE4FC-697F-4646-BE94-70F1FA88438C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BDEFEF3-A361-4A8C-AD34-9E732BC19D38}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{D69BE4FC-697F-4646-BE94-70F1FA88438C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC8DAA08-3382-46F2-8ADF-A5658C4DB0BB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="844" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="844" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="167">
   <si>
     <t>Description</t>
   </si>
@@ -354,9 +354,6 @@
     <t>Waste_Goods</t>
   </si>
   <si>
-    <t>Multi-layer material flow optimisation model for EV batteries</t>
-  </si>
-  <si>
     <t>model_classification</t>
   </si>
   <si>
@@ -495,9 +492,6 @@
     <t>ESSENZ material supply risk</t>
   </si>
   <si>
-    <t>Material price scenario (high, average, low)</t>
-  </si>
-  <si>
     <t>3_PR_mineral_price</t>
   </si>
   <si>
@@ -513,63 +507,44 @@
     <t>6_CR_ESSENZ_CF_elements</t>
   </si>
   <si>
-    <t>Energy_scenario</t>
-  </si>
-  <si>
-    <t>Energy consumption scenario (high, average, low)</t>
-  </si>
-  <si>
-    <t>Energy_Scenario</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>enerGy</t>
-  </si>
-  <si>
     <t>oG</t>
   </si>
   <si>
     <t>Sensitivity_analysis</t>
   </si>
   <si>
-    <t>Analysis</t>
-  </si>
-  <si>
     <t>eA</t>
   </si>
   <si>
+    <t>4_PE_sensitivity_materials</t>
+  </si>
+  <si>
+    <t>High and low GWP values for material extraction for senstivity analysis</t>
+  </si>
+  <si>
+    <t>Ap</t>
+  </si>
+  <si>
+    <t>Integrated model for battery sustainability</t>
+  </si>
+  <si>
+    <t>One-by-one parameter sensitivity for mineral prices</t>
+  </si>
+  <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>4_PE_sensitivity_materials</t>
-  </si>
-  <si>
-    <t>High and low GWP values for material extraction for senstivity analysis</t>
-  </si>
-  <si>
-    <t>Ap</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -772,7 +747,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -780,100 +755,100 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -885,16 +860,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -903,17 +878,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -1395,16 +1369,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:K68"/>
+  <dimension ref="A2:K67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="88.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="50.7109375" customWidth="1"/>
     <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1"/>
@@ -1444,7 +1418,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
@@ -1455,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>107</v>
+        <v>164</v>
       </c>
       <c r="I5" s="20"/>
       <c r="J5" s="9"/>
@@ -1512,7 +1486,7 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="19"/>
@@ -1593,7 +1567,7 @@
         <v>60</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E16" s="46" t="s">
         <v>61</v>
@@ -1636,25 +1610,25 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C18" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="37" t="s">
         <v>115</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>116</v>
       </c>
       <c r="E18" t="s">
         <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G18" s="20" t="s">
         <v>13</v>
       </c>
       <c r="H18" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="I18" s="47" t="s">
         <v>118</v>
-      </c>
-      <c r="I18" s="47" t="s">
-        <v>119</v>
       </c>
       <c r="J18" s="33"/>
       <c r="K18" s="20"/>
@@ -1760,7 +1734,7 @@
         <v>68</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E23" t="s">
         <v>11</v>
@@ -1784,16 +1758,16 @@
         <v>90</v>
       </c>
       <c r="E24" s="46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G24" s="46" t="s">
         <v>79</v>
       </c>
       <c r="H24" s="45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I24" s="49"/>
     </row>
@@ -1802,13 +1776,13 @@
         <v>74</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E25" s="46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G25" s="46" t="s">
         <v>73</v>
@@ -1844,7 +1818,7 @@
         <v>80</v>
       </c>
       <c r="C27" s="45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D27" s="37" t="s">
         <v>92</v>
@@ -1870,7 +1844,7 @@
         <v>77</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E28" s="46" t="s">
         <v>58</v>
@@ -1890,174 +1864,171 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C29" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="37" t="s">
         <v>120</v>
-      </c>
-      <c r="D29" s="37" t="s">
-        <v>121</v>
       </c>
       <c r="E29" s="46" t="s">
         <v>58</v>
       </c>
       <c r="F29" s="64" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G29" s="46" t="s">
         <v>13</v>
       </c>
       <c r="H29" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="I29" s="47" t="s">
         <v>122</v>
-      </c>
-      <c r="I29" s="47" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C30" s="45" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D30" s="65" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E30" s="46" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F30" s="66" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G30" s="46" t="s">
         <v>13</v>
       </c>
       <c r="H30" s="45" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I30" s="47"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C31" s="45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D31" s="65" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E31" s="46" t="s">
         <v>58</v>
       </c>
       <c r="F31" s="66" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G31" s="46" t="s">
         <v>13</v>
       </c>
       <c r="H31" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="I31" s="47" t="s">
         <v>138</v>
-      </c>
-      <c r="I31" s="47" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C32" s="45" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D32" s="65" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="E32" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="F32" s="68" t="s">
-        <v>166</v>
+        <v>132</v>
+      </c>
+      <c r="F32" s="67" t="s">
+        <v>159</v>
       </c>
       <c r="G32" s="46" t="s">
         <v>13</v>
       </c>
       <c r="H32" s="45" t="s">
-        <v>169</v>
-      </c>
-      <c r="I32" s="47" t="s">
-        <v>167</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="I32" s="47"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C33" s="45" t="s">
-        <v>160</v>
-      </c>
-      <c r="D33" s="65" t="s">
-        <v>161</v>
-      </c>
-      <c r="E33" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="F33" s="67" t="s">
-        <v>162</v>
-      </c>
-      <c r="G33" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="I33" s="47" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="25" t="s">
+      <c r="B33" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="27"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="50" t="s">
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="27"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="52"/>
-    </row>
-    <row r="37" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="52"/>
+    </row>
+    <row r="36" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B36" s="53"/>
+      <c r="C36" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" s="40"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="53"/>
-      <c r="C37" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="E37" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="F37" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="H37" s="55" t="s">
-        <v>19</v>
+      <c r="C37" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="G37" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="H37" s="62" t="s">
+        <v>45</v>
       </c>
       <c r="I37" s="40"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="53"/>
       <c r="C38" s="57" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D38" s="63" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E38" s="63" t="s">
         <v>44</v>
       </c>
       <c r="F38" s="63" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="G38" s="63" t="s">
         <v>59</v>
@@ -2069,20 +2040,20 @@
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="53"/>
-      <c r="C39" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" s="63" t="s">
-        <v>67</v>
+      <c r="C39" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="62" t="s">
+        <v>94</v>
       </c>
       <c r="E39" s="63" t="s">
         <v>44</v>
       </c>
       <c r="F39" s="63" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G39" s="63" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="H39" s="62" t="s">
         <v>45</v>
@@ -2092,19 +2063,19 @@
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="53"/>
       <c r="C40" s="56" t="s">
-        <v>55</v>
+        <v>153</v>
       </c>
       <c r="D40" s="62" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="E40" s="63" t="s">
         <v>44</v>
       </c>
       <c r="F40" s="63" t="s">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="G40" s="63" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="H40" s="62" t="s">
         <v>45</v>
@@ -2114,16 +2085,16 @@
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="53"/>
       <c r="C41" s="56" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D41" s="62" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E41" s="63" t="s">
         <v>44</v>
       </c>
       <c r="F41" s="63" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="G41" s="63" t="s">
         <v>59</v>
@@ -2135,17 +2106,17 @@
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="53"/>
-      <c r="C42" s="56" t="s">
-        <v>150</v>
-      </c>
-      <c r="D42" s="62" t="s">
-        <v>151</v>
+      <c r="C42" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" s="63" t="s">
+        <v>98</v>
       </c>
       <c r="E42" s="63" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="F42" s="63" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="G42" s="63" t="s">
         <v>59</v>
@@ -2158,16 +2129,16 @@
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="53"/>
       <c r="C43" s="57" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D43" s="63" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E43" s="63" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F43" s="63" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="G43" s="63" t="s">
         <v>59</v>
@@ -2180,16 +2151,16 @@
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="53"/>
       <c r="C44" s="57" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D44" s="63" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="E44" s="63" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F44" s="63" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="G44" s="63" t="s">
         <v>59</v>
@@ -2202,61 +2173,60 @@
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="53"/>
       <c r="C45" s="57" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="D45" s="63" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="E45" s="63" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="F45" s="63" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="G45" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="H45" s="62" t="s">
+      <c r="H45" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="I45" s="40"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="53"/>
       <c r="C46" s="57" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="D46" s="63" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E46" s="63" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="F46" s="63" t="s">
-        <v>146</v>
+        <v>96</v>
       </c>
       <c r="G46" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="H46" s="63" t="s">
+      <c r="H46" s="62" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="53"/>
       <c r="C47" s="57" t="s">
-        <v>103</v>
-      </c>
-      <c r="D47" s="63" t="s">
-        <v>132</v>
+        <v>104</v>
+      </c>
+      <c r="D47" s="53" t="s">
+        <v>148</v>
       </c>
       <c r="E47" s="63" t="s">
-        <v>131</v>
-      </c>
-      <c r="F47" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="G47" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="F47" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="G47" s="53" t="s">
         <v>59</v>
       </c>
       <c r="H47" s="62" t="s">
@@ -2266,16 +2236,16 @@
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="53"/>
       <c r="C48" s="57" t="s">
-        <v>104</v>
+        <v>161</v>
       </c>
       <c r="D48" s="53" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="E48" s="63" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="F48" s="53" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="G48" s="53" t="s">
         <v>59</v>
@@ -2287,37 +2257,37 @@
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="53"/>
       <c r="C49" s="57" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="D49" s="53" t="s">
-        <v>171</v>
-      </c>
-      <c r="E49" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="E49" s="53" t="s">
         <v>44</v>
       </c>
       <c r="F49" s="53" t="s">
-        <v>172</v>
-      </c>
-      <c r="G49" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="G49" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="H49" s="62" t="s">
+      <c r="H49" s="63" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="53"/>
       <c r="C50" s="57" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="D50" s="53" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="E50" s="53" t="s">
         <v>44</v>
       </c>
       <c r="F50" s="53" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="G50" s="63" t="s">
         <v>59</v>
@@ -2327,62 +2297,44 @@
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="53"/>
-      <c r="C51" s="57" t="s">
-        <v>159</v>
-      </c>
-      <c r="D51" s="53" t="s">
-        <v>157</v>
-      </c>
-      <c r="E51" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="F51" s="53" t="s">
-        <v>158</v>
-      </c>
-      <c r="G51" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="H51" s="63" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="50" t="s">
+      <c r="B51" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="51"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51"/>
-      <c r="H52" s="52"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="52"/>
+    </row>
+    <row r="52" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B52" s="53"/>
+      <c r="C52" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52" s="53"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="53"/>
+      <c r="H52" s="53"/>
     </row>
     <row r="53" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B53" s="53"/>
-      <c r="C53" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="D53" s="53"/>
-      <c r="E53" s="53"/>
+      <c r="C53" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="E53" s="53" t="s">
+        <v>28</v>
+      </c>
       <c r="F53" s="53"/>
       <c r="G53" s="53"/>
       <c r="H53" s="53"/>
     </row>
-    <row r="54" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B54" s="53"/>
-      <c r="C54" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="D54" s="59" t="s">
-        <v>110</v>
-      </c>
-      <c r="E54" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="F54" s="53"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="53"/>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D54" s="37"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D55" s="37"/>
@@ -2396,33 +2348,33 @@
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D58" s="37"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D59" s="37"/>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="25" t="s">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="27"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="27"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D62" s="37"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D63" s="37"/>
+      <c r="B63" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C63" s="43"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="27"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="C64" s="43"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="27"/>
+      <c r="D64" s="37"/>
     </row>
     <row r="65" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D65" s="37"/>
@@ -2433,11 +2385,8 @@
     <row r="67" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D67" s="37"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D68" s="37"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/example notebooks/Example publication - integrated modelling/model_config.xlsx
+++ b/example notebooks/Example publication - integrated modelling/model_config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/b8061896_newcastle_ac_uk/Documents/Python/Projects/Bat_Sust_Model/Batt_Sust_Model/example notebooks/Example publication - integrated modelling/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/b8061896_newcastle_ac_uk/Documents/Python/Projects/Bat_Sust_Model/example notebooks/Example publication - integrated modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{D69BE4FC-697F-4646-BE94-70F1FA88438C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC8DAA08-3382-46F2-8ADF-A5658C4DB0BB}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{D69BE4FC-697F-4646-BE94-70F1FA88438C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51A36F0B-4252-47D8-B5FE-DB8F77ED7B26}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="844" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="172">
   <si>
     <t>Description</t>
   </si>
@@ -528,30 +528,38 @@
     <t>Integrated model for battery sustainability</t>
   </si>
   <si>
-    <t>One-by-one parameter sensitivity for mineral prices</t>
-  </si>
-  <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>Energy_scenario</t>
+  </si>
+  <si>
+    <t>Mineral_price_scenario</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>High, used and low historic mineral prices</t>
+  </si>
+  <si>
+    <t>Low, average and high energy consumption for battery manufacturing</t>
+  </si>
+  <si>
+    <t>Energy_Scenario</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -747,7 +755,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -755,100 +763,100 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -860,16 +868,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -878,17 +886,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1369,10 +1376,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:K67"/>
+  <dimension ref="A2:K68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1887,148 +1894,147 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C30" s="45" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D30" s="65" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E30" s="46" t="s">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="F30" s="66" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G30" s="46" t="s">
         <v>13</v>
       </c>
       <c r="H30" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="I30" s="47"/>
+        <v>137</v>
+      </c>
+      <c r="I30" s="47" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C31" s="45" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D31" s="65" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E31" s="46" t="s">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="F31" s="66" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G31" s="46" t="s">
         <v>13</v>
       </c>
       <c r="H31" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="I31" s="47" t="s">
-        <v>138</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="I31" s="47"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C32" s="45" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D32" s="65" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E32" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="F32" s="67" t="s">
-        <v>159</v>
+      <c r="F32" s="66" t="s">
+        <v>171</v>
       </c>
       <c r="G32" s="46" t="s">
         <v>13</v>
       </c>
       <c r="H32" s="45" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I32" s="47"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="25" t="s">
+      <c r="C33" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="D33" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="E33" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="F33" s="66" t="s">
+        <v>159</v>
+      </c>
+      <c r="G33" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="I33" s="47"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="27"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="50" t="s">
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="27"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="52"/>
-    </row>
-    <row r="36" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B36" s="53"/>
-      <c r="C36" s="54" t="s">
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="52"/>
+    </row>
+    <row r="37" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B37" s="53"/>
+      <c r="C37" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="55" t="s">
+      <c r="D37" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="E36" s="55" t="s">
+      <c r="E37" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="55" t="s">
+      <c r="F37" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="G36" s="55" t="s">
+      <c r="G37" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="H36" s="55" t="s">
+      <c r="H37" s="55" t="s">
         <v>19</v>
-      </c>
-      <c r="I36" s="40"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="53"/>
-      <c r="C37" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="D37" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="E37" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F37" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="G37" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="H37" s="62" t="s">
-        <v>45</v>
       </c>
       <c r="I37" s="40"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="53"/>
       <c r="C38" s="57" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D38" s="63" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E38" s="63" t="s">
         <v>44</v>
       </c>
       <c r="F38" s="63" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G38" s="63" t="s">
         <v>59</v>
@@ -2040,20 +2046,20 @@
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="53"/>
-      <c r="C39" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="D39" s="62" t="s">
-        <v>94</v>
+      <c r="C39" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="63" t="s">
+        <v>67</v>
       </c>
       <c r="E39" s="63" t="s">
         <v>44</v>
       </c>
       <c r="F39" s="63" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G39" s="63" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="H39" s="62" t="s">
         <v>45</v>
@@ -2063,19 +2069,19 @@
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="53"/>
       <c r="C40" s="56" t="s">
-        <v>153</v>
+        <v>55</v>
       </c>
       <c r="D40" s="62" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="E40" s="63" t="s">
         <v>44</v>
       </c>
       <c r="F40" s="63" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="G40" s="63" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="H40" s="62" t="s">
         <v>45</v>
@@ -2085,16 +2091,16 @@
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="53"/>
       <c r="C41" s="56" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D41" s="62" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E41" s="63" t="s">
         <v>44</v>
       </c>
       <c r="F41" s="63" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="G41" s="63" t="s">
         <v>59</v>
@@ -2106,17 +2112,17 @@
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="53"/>
-      <c r="C42" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="D42" s="63" t="s">
-        <v>98</v>
+      <c r="C42" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="D42" s="62" t="s">
+        <v>150</v>
       </c>
       <c r="E42" s="63" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="F42" s="63" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="G42" s="63" t="s">
         <v>59</v>
@@ -2129,16 +2135,16 @@
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="53"/>
       <c r="C43" s="57" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D43" s="63" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E43" s="63" t="s">
         <v>130</v>
       </c>
       <c r="F43" s="63" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="G43" s="63" t="s">
         <v>59</v>
@@ -2151,16 +2157,16 @@
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="53"/>
       <c r="C44" s="57" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D44" s="63" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E44" s="63" t="s">
         <v>130</v>
       </c>
       <c r="F44" s="63" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="G44" s="63" t="s">
         <v>59</v>
@@ -2173,60 +2179,61 @@
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="53"/>
       <c r="C45" s="57" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="D45" s="63" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="E45" s="63" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="F45" s="63" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="G45" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="H45" s="63" t="s">
+      <c r="H45" s="62" t="s">
         <v>45</v>
       </c>
+      <c r="I45" s="40"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="53"/>
       <c r="C46" s="57" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="D46" s="63" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="E46" s="63" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="F46" s="63" t="s">
-        <v>96</v>
+        <v>145</v>
       </c>
       <c r="G46" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="H46" s="62" t="s">
+      <c r="H46" s="63" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="53"/>
       <c r="C47" s="57" t="s">
-        <v>104</v>
-      </c>
-      <c r="D47" s="53" t="s">
-        <v>148</v>
+        <v>103</v>
+      </c>
+      <c r="D47" s="63" t="s">
+        <v>131</v>
       </c>
       <c r="E47" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="F47" s="53" t="s">
-        <v>111</v>
-      </c>
-      <c r="G47" s="53" t="s">
+      <c r="F47" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="G47" s="63" t="s">
         <v>59</v>
       </c>
       <c r="H47" s="62" t="s">
@@ -2236,16 +2243,16 @@
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="53"/>
       <c r="C48" s="57" t="s">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c r="D48" s="53" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="E48" s="63" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="F48" s="53" t="s">
-        <v>163</v>
+        <v>111</v>
       </c>
       <c r="G48" s="53" t="s">
         <v>59</v>
@@ -2257,37 +2264,37 @@
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="53"/>
       <c r="C49" s="57" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="D49" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="E49" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="E49" s="63" t="s">
         <v>44</v>
       </c>
       <c r="F49" s="53" t="s">
-        <v>158</v>
-      </c>
-      <c r="G49" s="63" t="s">
+        <v>163</v>
+      </c>
+      <c r="G49" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="H49" s="63" t="s">
+      <c r="H49" s="62" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="53"/>
       <c r="C50" s="57" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="D50" s="53" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="E50" s="53" t="s">
         <v>44</v>
       </c>
       <c r="F50" s="53" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G50" s="63" t="s">
         <v>59</v>
@@ -2297,44 +2304,62 @@
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="50" t="s">
+      <c r="B51" s="53"/>
+      <c r="C51" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="D51" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="E51" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="G51" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="H51" s="63" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="51"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="51"/>
-      <c r="H51" s="52"/>
-    </row>
-    <row r="52" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B52" s="53"/>
-      <c r="C52" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="D52" s="53"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="53"/>
-      <c r="H52" s="53"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="52"/>
     </row>
     <row r="53" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B53" s="53"/>
-      <c r="C53" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="D53" s="59" t="s">
-        <v>109</v>
-      </c>
-      <c r="E53" s="53" t="s">
-        <v>28</v>
-      </c>
+      <c r="C53" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53" s="53"/>
+      <c r="E53" s="53"/>
       <c r="F53" s="53"/>
       <c r="G53" s="53"/>
       <c r="H53" s="53"/>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D54" s="37"/>
+    <row r="54" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B54" s="53"/>
+      <c r="C54" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="E54" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="F54" s="53"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="53"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D55" s="37"/>
@@ -2348,33 +2373,33 @@
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D58" s="37"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="25" t="s">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D59" s="37"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="27"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D62" s="37"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="27"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="42" t="s">
+      <c r="D63" s="37"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="C63" s="43"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="27"/>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D64" s="37"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="27"/>
     </row>
     <row r="65" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D65" s="37"/>
@@ -2385,8 +2410,11 @@
     <row r="67" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D67" s="37"/>
     </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D68" s="37"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/example notebooks/Example publication - integrated modelling/model_config.xlsx
+++ b/example notebooks/Example publication - integrated modelling/model_config.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/b8061896_newcastle_ac_uk/Documents/Python/Projects/Bat_Sust_Model/example notebooks/Example publication - integrated modelling/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joris\OneDrive - Newcastle University\Python\Projects\Bat_Sust_Model\example notebooks\Example publication - integrated modelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{D69BE4FC-697F-4646-BE94-70F1FA88438C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51A36F0B-4252-47D8-B5FE-DB8F77ED7B26}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DFFF51-BF67-42C8-9E29-3C6810533212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="844" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="844" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="5" r:id="rId1"/>
     <sheet name="Setting_Config" sheetId="6" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="171">
   <si>
     <t>Description</t>
   </si>
@@ -534,19 +534,16 @@
     <t>Energy_scenario</t>
   </si>
   <si>
-    <t>Mineral_price_scenario</t>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
-    <t>High, used and low historic mineral prices</t>
-  </si>
-  <si>
     <t>Low, average and high energy consumption for battery manufacturing</t>
   </si>
   <si>
     <t>Energy_Scenario</t>
+  </si>
+  <si>
+    <t>High, used and low values for sensitivity analysis</t>
   </si>
 </sst>
 </file>
@@ -1379,7 +1376,7 @@
   <dimension ref="A2:K68"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1941,28 +1938,28 @@
         <v>166</v>
       </c>
       <c r="D32" s="65" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E32" s="46" t="s">
         <v>132</v>
       </c>
       <c r="F32" s="66" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G32" s="46" t="s">
         <v>13</v>
       </c>
       <c r="H32" s="45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I32" s="47"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C33" s="45" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D33" s="65" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E33" s="46" t="s">
         <v>132</v>
